--- a/AutomateTheBoringStuffWithPython_NoStarchPress/sampleChart.xlsx
+++ b/AutomateTheBoringStuffWithPython_NoStarchPress/sampleChart.xlsx
@@ -76,7 +76,7 @@
           </spPr>
           <val>
             <numRef>
-              <f>'Sheet'!$A$1:$J$1</f>
+              <f>'Sheet'!$A$1:$A$10</f>
             </numRef>
           </val>
         </ser>
